--- a/문서/Rank.xlsx
+++ b/문서/Rank.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SJpark\Desktop\PROJ\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC4A3D33-91E7-4E54-958B-F506D4C0E523}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD6E027-E06B-4485-BA4C-1429DEF8F2A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3F7DDADD-C191-4020-B25F-2EA682A198DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>rank</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -408,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1DFBDD1-B6AF-4F0A-AE57-7A6F844F442D}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,8 +436,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -449,8 +456,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -466,8 +476,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -483,8 +496,11 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -500,8 +516,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -517,8 +536,11 @@
       <c r="E6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -534,8 +556,11 @@
       <c r="E7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -551,8 +576,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -568,8 +596,11 @@
       <c r="E9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -585,8 +616,11 @@
       <c r="E10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -602,8 +636,11 @@
       <c r="E11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -619,8 +656,11 @@
       <c r="E12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -636,8 +676,11 @@
       <c r="E13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -653,8 +696,11 @@
       <c r="E14">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -670,8 +716,11 @@
       <c r="E15">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -687,8 +736,11 @@
       <c r="E16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -704,8 +756,11 @@
       <c r="E17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -721,8 +776,11 @@
       <c r="E18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -738,8 +796,11 @@
       <c r="E19">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -754,6 +815,9 @@
       </c>
       <c r="E20">
         <v>10</v>
+      </c>
+      <c r="F20">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
